--- a/rc4/OverviewSheet.xlsx
+++ b/rc4/OverviewSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toobakhan/Documents/codeLibrary/rc4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toobakhan/Documents/rc4-Cryptanalysis/rc4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F3EB9E89-1F07-5E4F-86B1-7895987CEE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CC884C52-ECA8-494A-83CC-434D05C5E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="900" windowWidth="27640" windowHeight="15780" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8192" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="32" sheetId="5" r:id="rId5"/>
     <sheet name="16" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
@@ -665,17 +665,113 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[2]graph2!$AI$1:$AI$32</c:f>
+              <c:f>'8192'!$AI$1:$AI$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.11467272727272726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11315757575757578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11222727272727274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11146060606060609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11113939393939395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11093333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1107939393939394</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11078484848484853</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11079090909090913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11060909090909095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11064848484848488</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11069696969696974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11060606060606062</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11046969696969701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11025454545454548</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11041515151515154</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11052424242424244</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11056969696969697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11029393939393942</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11039393939393942</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11059696969696972</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11057575757575759</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11064242424242424</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11077575757575758</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.11059090909090911</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11058181818181821</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.11043030303030303</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.11049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.11033333333333334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.11049090909090911</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.11062424242424244</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-764C-D643-9529-2317914FCE63}"/>
+              <c16:uniqueId val="{00000000-D798-224E-AC39-02D2ACC7F019}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -688,11 +784,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2138082432"/>
-        <c:axId val="1628614607"/>
+        <c:axId val="310151903"/>
+        <c:axId val="310107599"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138082432"/>
+        <c:axId val="310151903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1628614607"/>
+        <c:crossAx val="310107599"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -742,7 +838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1628614607"/>
+        <c:axId val="310107599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138082432"/>
+        <c:crossAx val="310151903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -916,17 +1012,113 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[2]graph2!$AI$1:$AI$32</c:f>
+              <c:f>'1024'!$AI$1:$AI$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.91258787878787884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90029090909090914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89586363636363642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89135757575757579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88782424242424229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88761818181818186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8861939393939392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88681818181818195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88408484848484836</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88391818181818171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88481818181818184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88407272727272712</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88460303030303034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88426969696969704</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88550909090909091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88393939393939402</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88388787878787878</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88214545454545445</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88312424242424259</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88404545454545447</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.88363030303030288</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.88340909090909092</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88312424242424259</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88330606060606076</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88343333333333329</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8841212121212122</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.88441515151515149</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8838818181818181</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88328484848484867</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88379696969697008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.88609090909090926</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.88662424242424231</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5BA3-3F42-AA4E-E0C42FE7E764}"/>
+              <c16:uniqueId val="{00000000-1AF7-4644-8E1D-5982D361D605}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -939,11 +1131,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1629302031"/>
-        <c:axId val="1629163871"/>
+        <c:axId val="1465745903"/>
+        <c:axId val="1477751455"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1629302031"/>
+        <c:axId val="1465745903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +1177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1629163871"/>
+        <c:crossAx val="1477751455"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -993,7 +1185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1629163871"/>
+        <c:axId val="1477751455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1629302031"/>
+        <c:crossAx val="1465745903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1167,17 +1359,113 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[2]graph2!$AI$1:$AI$32</c:f>
+              <c:f>'256'!$AI$1:$AI$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.6515545500000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.59874545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5785151499999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5711575799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5574636399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5520636400000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5539757600000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5493757600000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5501272699999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5443393900000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.54100606</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5354878799999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5365000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5381606099999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5406181800000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5353787900000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5343484799999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5396606099999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.54049697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5368272699999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5320303000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5354302999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.54045758</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5342333300000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5345424200000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5405696999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5305727299999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5280121200000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5276999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5244090899999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5344848500000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5299939400000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8251-204C-985C-157F3659CAB9}"/>
+              <c16:uniqueId val="{00000000-6246-7D4E-8D2D-DA41768A7725}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1190,11 +1478,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1681787135"/>
-        <c:axId val="1681788783"/>
+        <c:axId val="310076719"/>
+        <c:axId val="309459343"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1681787135"/>
+        <c:axId val="310076719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681788783"/>
+        <c:crossAx val="309459343"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1244,7 +1532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1681788783"/>
+        <c:axId val="309459343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681787135"/>
+        <c:crossAx val="310076719"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,17 +1706,113 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[2]graph2!$AI$1:$AI$32</c:f>
+              <c:f>'64'!$AI$1:$AI$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>14.654448484848484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.4536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.374636363636366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.310554545454547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.245451515151514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.246475757575757</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.193033333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.205490909090909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.21902424242424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.249948484848485</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.235339393939395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.228284848484845</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.184721212121209</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.180021212121208</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.186451515151512</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.156312121212123</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.150221212121211</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.160303030303027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.142648484848481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.145833333333332</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.151915151515151</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.157975757575755</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.151336363636362</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.147981818181819</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.143790909090908</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.158203030303032</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.130921212121212</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.137715151515152</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.167721212121213</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.146448484848484</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.180542424242422</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.142706060606058</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-21B9-404C-8191-B765580E7170}"/>
+              <c16:uniqueId val="{00000000-4712-1242-B442-28C0C3CEFF7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1441,11 +1825,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1499960319"/>
-        <c:axId val="1499961967"/>
+        <c:axId val="309906639"/>
+        <c:axId val="1478163135"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1499960319"/>
+        <c:axId val="309906639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1499961967"/>
+        <c:crossAx val="1478163135"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1495,7 +1879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1499961967"/>
+        <c:axId val="1478163135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1499960319"/>
+        <c:crossAx val="309906639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1669,17 +2053,113 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[2]graph2!$AI$1:$AI$32</c:f>
+              <c:f>'32'!$AI$1:$AI$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>29.234769696969703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.851178787878787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.677660606060602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.546266666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.498587878787877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.399557575757569</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.365548484848478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.370718181818177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.342096969696964</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.320242424242419</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.294839393939391</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.283121212121209</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.307230303030298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.255306060606049</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.271175757575755</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.310957575757566</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.31652727272726</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.311309090909081</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.276896969696963</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.252927272727266</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28.278636363636359</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.312639393939385</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.30651515151515</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.260772727272716</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.290609090909079</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.281766666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.293990909090905</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.250481818181822</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.296181818181818</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.275969696969696</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.273854545454537</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.298421212121209</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D2C-E042-9E81-E607825D7B64}"/>
+              <c16:uniqueId val="{00000000-3B9E-8043-A97C-F7F90323FB25}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1692,11 +2172,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1499944575"/>
-        <c:axId val="1499946223"/>
+        <c:axId val="310183439"/>
+        <c:axId val="310182175"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1499944575"/>
+        <c:axId val="310183439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,7 +2218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1499946223"/>
+        <c:crossAx val="310182175"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1746,7 +2226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1499946223"/>
+        <c:axId val="310182175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,7 +2277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1499944575"/>
+        <c:crossAx val="310183439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1920,17 +2400,113 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[2]graph2!$AI$1:$AI$32</c:f>
+              <c:f>'16'!$AI$1:$AI$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>58.546833333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.949521212121212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.205699999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.343054545454535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.375190909090904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.128769696969698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.0306909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.815442424242413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.786757575757562</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.696199999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.565827272727262</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.563936363636358</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.529475757575753</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.597530303030283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.691533333333318</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.744863636363625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.753069696969682</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.78128181818181</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.618639393939389</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.67025151515152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.572475757575752</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.661515151515147</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.611924242424237</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.597684848484839</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.417648484848463</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.340924242424229</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56.407390909090893</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.474484848484842</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.460360606060597</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.594184848484829</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.538639393939391</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.56248787878787</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5193-7B41-9E97-8C01FF3254E7}"/>
+              <c16:uniqueId val="{00000000-DFCB-1743-9D99-3512C4426194}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1943,11 +2519,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1499686143"/>
-        <c:axId val="1499775151"/>
+        <c:axId val="1719510191"/>
+        <c:axId val="1514118031"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1499686143"/>
+        <c:axId val="1719510191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,7 +2565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1499775151"/>
+        <c:crossAx val="1514118031"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1997,7 +2573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1499775151"/>
+        <c:axId val="1514118031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +2624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1499686143"/>
+        <c:crossAx val="1719510191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2119,6 +2695,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Analysis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0%"/>
+              <a:t> of Key Sizes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3805,6 +4410,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0%"/>
+                  <a:t> os bits in output key stream</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3843,7 +4508,7 @@
         </c:txPr>
         <c:crossAx val="636128128"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -3852,6 +4517,1038 @@
         <c:axId val="636128128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Randomness when more Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0%"/>
+                  <a:t> of bits are flipped</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636126480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 Bytes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>58.546833333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.949521212121212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.205699999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.343054545454535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.375190909090904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.128769696969698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.0306909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.815442424242413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.786757575757562</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.696199999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.565827272727262</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.563936363636358</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.529475757575753</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.597530303030283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.691533333333318</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.744863636363625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.753069696969682</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.78128181818181</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.618639393939389</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.67025151515152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.572475757575752</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.661515151515147</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.611924242424237</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.597684848484839</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.417648484848463</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.340924242424229</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56.407390909090893</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.474484848484842</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.460360606060597</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.594184848484829</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.538639393939391</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.56248787878787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-732A-F54C-9763-1F96EABB7E43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4 Bytes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>29.234769696969703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.851178787878787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.677660606060602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.546266666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.498587878787877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.399557575757569</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.365548484848478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.370718181818177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.342096969696964</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.320242424242419</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.294839393939391</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.283121212121209</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.307230303030298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.255306060606049</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.271175757575755</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.310957575757566</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.31652727272726</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.311309090909081</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.276896969696963</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.252927272727266</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28.278636363636359</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.312639393939385</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.30651515151515</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.260772727272716</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.290609090909079</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.281766666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.293990909090905</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.250481818181822</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.296181818181818</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.275969696969696</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.273854545454537</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.298421212121209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-732A-F54C-9763-1F96EABB7E43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 Bytes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>14.654448484848484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.4536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.374636363636366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.310554545454547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.245451515151514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.246475757575757</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.193033333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.205490909090909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.21902424242424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.249948484848485</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.235339393939395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.228284848484845</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.184721212121209</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.180021212121208</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.186451515151512</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.156312121212123</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.150221212121211</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.160303030303027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.142648484848481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.145833333333332</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.151915151515151</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.157975757575755</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.151336363636362</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.147981818181819</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.143790909090908</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.158203030303032</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.130921212121212</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.137715151515152</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.167721212121213</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.146448484848484</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.180542424242422</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.142706060606058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-732A-F54C-9763-1F96EABB7E43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>32 Bytes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.6515545500000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.59874545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5785151499999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5711575799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5574636399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5520636400000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5539757600000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5493757600000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5501272699999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5443393900000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.54100606</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5354878799999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5365000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5381606099999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5406181800000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5353787900000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5343484799999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5396606099999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.54049697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5368272699999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5320303000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5354302999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.54045758</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5342333300000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5345424200000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5405696999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5305727299999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5280121200000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5276999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5244090899999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5344848500000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5299939400000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-732A-F54C-9763-1F96EABB7E43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>256 Bytes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.91258787878787884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90029090909090914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89586363636363642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89135757575757579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88782424242424229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88761818181818186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8861939393939392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88681818181818195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88408484848484836</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88391818181818171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88481818181818184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88407272727272712</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88460303030303034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88426969696969704</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88550909090909091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88393939393939402</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88388787878787878</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88214545454545445</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88312424242424259</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88404545454545447</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.88363030303030288</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.88340909090909092</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88312424242424259</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88330606060606076</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88343333333333329</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8841212121212122</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.88441515151515149</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8838818181818181</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88328484848484867</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88379696969697008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.88609090909090926</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.88662424242424231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-732A-F54C-9763-1F96EABB7E43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>1024 Bytes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.11467272727272726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11315757575757578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11222727272727274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11146060606060609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11113939393939395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11093333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1107939393939394</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11078484848484853</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11079090909090913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11060909090909095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11064848484848488</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11069696969696974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11060606060606062</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11046969696969701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11025454545454548</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11041515151515154</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11052424242424244</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11056969696969697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11029393939393942</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11039393939393942</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11059696969696972</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11057575757575759</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11064242424242424</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11077575757575758</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.11059090909090911</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11058181818181821</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.11043030303030303</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.11049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.11033333333333334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.11049090909090911</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.11062424242424244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-732A-F54C-9763-1F96EABB7E43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1671747711"/>
+        <c:axId val="1671821823"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1671747711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671821823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1671821823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3900,9 +5597,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636126480"/>
+        <c:crossAx val="1671747711"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3987,7 +5686,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4054,105 +5753,105 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$33</c:f>
+              <c:f>Sheet1!$I$2:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>58.546833333333339</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.949521212121212</c:v>
+                  <c:v>0.98979770403957867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.205699999999993</c:v>
+                  <c:v>0.97709298254104238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.343054545454535</c:v>
+                  <c:v>0.97943904530198667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.375190909090904</c:v>
+                  <c:v>0.97998794541846956</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.128769696969698</c:v>
+                  <c:v>0.97577898657148598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.0306909090909</c:v>
+                  <c:v>0.97410376722494352</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.815442424242413</c:v>
+                  <c:v>0.97042724925474033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.786757575757562</c:v>
+                  <c:v>0.96993730220121599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.696199999999997</c:v>
+                  <c:v>0.96839054773813538</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.565827272727262</c:v>
+                  <c:v>0.96616373682710865</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56.563936363636358</c:v>
+                  <c:v>0.96613143945108937</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56.529475757575753</c:v>
+                  <c:v>0.96554284047658279</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.597530303030283</c:v>
+                  <c:v>0.96670523546158682</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>56.691533333333318</c:v>
+                  <c:v>0.96831083947039509</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>56.744863636363625</c:v>
+                  <c:v>0.96922173934309486</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56.753069696969682</c:v>
+                  <c:v>0.96936190167364034</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56.78128181818181</c:v>
+                  <c:v>0.96984377438316005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56.618639393939389</c:v>
+                  <c:v>0.96706578597657233</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56.67025151515152</c:v>
+                  <c:v>0.96794733871433147</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>56.572475757575752</c:v>
+                  <c:v>0.96627729522933059</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.661515151515147</c:v>
+                  <c:v>0.96779811862608811</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.611924242424237</c:v>
+                  <c:v>0.96695108888481129</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>56.597684848484839</c:v>
+                  <c:v>0.96670787515097312</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>56.417648484848463</c:v>
+                  <c:v>0.96363279229189946</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56.340924242424229</c:v>
+                  <c:v>0.96232231590819128</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56.407390909090893</c:v>
+                  <c:v>0.96345758937871773</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56.474484848484842</c:v>
+                  <c:v>0.96460357688263532</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56.460360606060597</c:v>
+                  <c:v>0.96436232997618299</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56.594184848484829</c:v>
+                  <c:v>0.96664809395016793</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>56.538639393939391</c:v>
+                  <c:v>0.96569935852959976</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56.56248787878787</c:v>
+                  <c:v>0.96610669883292066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4160,7 +5859,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-732A-F54C-9763-1F96EABB7E43}"/>
+              <c16:uniqueId val="{00000000-241B-7C43-9061-5249C6843006}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4181,105 +5880,105 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$33</c:f>
+              <c:f>Sheet1!$J$2:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>29.234769696969703</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.851178787878787</c:v>
+                  <c:v>0.98687894883157989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.677660606060602</c:v>
+                  <c:v>0.98094361280476072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.546266666666668</c:v>
+                  <c:v>0.97644917208380122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.498587878787877</c:v>
+                  <c:v>0.97481827885724259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.399557575757569</c:v>
+                  <c:v>0.97143086366441578</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.365548484848478</c:v>
+                  <c:v>0.97026755397319508</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.370718181818177</c:v>
+                  <c:v>0.9704443878262845</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.342096969696964</c:v>
+                  <c:v>0.96946537508160124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.320242424242419</c:v>
+                  <c:v>0.96871782188788447</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.294839393939391</c:v>
+                  <c:v>0.96784888977156058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.283121212121209</c:v>
+                  <c:v>0.96744805946095291</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.307230303030298</c:v>
+                  <c:v>0.96827273128696656</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.255306060606049</c:v>
+                  <c:v>0.96649661870039705</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.271175757575755</c:v>
+                  <c:v>0.96703945509467004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.310957575757566</c:v>
+                  <c:v>0.96840022580003793</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.31652727272726</c:v>
+                  <c:v>0.96859074199111539</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.311309090909081</c:v>
+                  <c:v>0.96841224967281536</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.276896969696963</c:v>
+                  <c:v>0.96723515398953097</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.252927272727266</c:v>
+                  <c:v>0.96641525025099795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.278636363636359</c:v>
+                  <c:v>0.96729465142896431</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.312639393939385</c:v>
+                  <c:v>0.96845775381203358</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.30651515151515</c:v>
+                  <c:v>0.96824826892510907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28.260772727272716</c:v>
+                  <c:v>0.96668361065290187</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.290609090909079</c:v>
+                  <c:v>0.96770418868192798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.281766666666663</c:v>
+                  <c:v>0.96740172608912933</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28.293990909090905</c:v>
+                  <c:v>0.96781986663037356</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.250481818181822</c:v>
+                  <c:v>0.9663316014119343</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.296181818181818</c:v>
+                  <c:v>0.96789480852708154</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.275969696969696</c:v>
+                  <c:v>0.96720343584237678</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.273854545454537</c:v>
+                  <c:v>0.96713108529756031</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.298421212121209</c:v>
+                  <c:v>0.96797140888900002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4287,7 +5986,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-732A-F54C-9763-1F96EABB7E43}"/>
+              <c16:uniqueId val="{00000001-241B-7C43-9061-5249C6843006}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4308,105 +6007,105 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$33</c:f>
+              <c:f>Sheet1!$K$2:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>14.654448484848484</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4536</c:v>
+                  <c:v>0.98629436753923938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.374636363636366</c:v>
+                  <c:v>0.98090599441518245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.310554545454547</c:v>
+                  <c:v>0.97653313669569375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.245451515151514</c:v>
+                  <c:v>0.97209059282443555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.246475757575757</c:v>
+                  <c:v>0.97216048576003822</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.193033333333331</c:v>
+                  <c:v>0.96851364607871671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.205490909090909</c:v>
+                  <c:v>0.96936373441677037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.21902424242424</c:v>
+                  <c:v>0.97028723101558978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.249948484848485</c:v>
+                  <c:v>0.97239746003282079</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.235339393939395</c:v>
+                  <c:v>0.97140055517323531</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.228284848484845</c:v>
+                  <c:v>0.97091916240967668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.184721212121209</c:v>
+                  <c:v>0.96794643802440372</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.180021212121208</c:v>
+                  <c:v>0.9676257162991978</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.186451515151512</c:v>
+                  <c:v>0.96806451159312867</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.156312121212123</c:v>
+                  <c:v>0.9660078395886823</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.150221212121211</c:v>
+                  <c:v>0.96559220408406343</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.160303030303027</c:v>
+                  <c:v>0.9662801738969321</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.142648484848481</c:v>
+                  <c:v>0.96507545128503724</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.145833333333332</c:v>
+                  <c:v>0.96529278109367145</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.151915151515151</c:v>
+                  <c:v>0.96570779624679082</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.157975757575755</c:v>
+                  <c:v>0.9661213639130779</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.151336363636362</c:v>
+                  <c:v>0.96566830053466024</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.147981818181819</c:v>
+                  <c:v>0.96543939083137043</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.143790909090908</c:v>
+                  <c:v>0.96515340879013267</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14.158203030303032</c:v>
+                  <c:v>0.96613687270056392</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14.130921212121212</c:v>
+                  <c:v>0.96427519785077165</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.137715151515152</c:v>
+                  <c:v>0.96473880720467975</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14.167721212121213</c:v>
+                  <c:v>0.96678638072046807</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.146448484848484</c:v>
+                  <c:v>0.96533475821179959</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.180542424242422</c:v>
+                  <c:v>0.96766128311849864</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.142706060606058</c:v>
+                  <c:v>0.9650793801778671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4414,7 +6113,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-732A-F54C-9763-1F96EABB7E43}"/>
+              <c16:uniqueId val="{00000002-241B-7C43-9061-5249C6843006}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4435,105 +6134,105 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$33</c:f>
+              <c:f>Sheet1!$L$2:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>3.6515545500000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.59874545</c:v>
+                  <c:v>0.98553791288699211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5785151499999999</c:v>
+                  <c:v>0.97999772453077549</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5711575799999999</c:v>
+                  <c:v>0.97798281008837717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5574636399999999</c:v>
+                  <c:v>0.97423264291642575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5520636400000001</c:v>
+                  <c:v>0.97275382069809146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5539757600000002</c:v>
+                  <c:v>0.97327746616848432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5493757600000002</c:v>
+                  <c:v>0.97201772872323655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5501272699999999</c:v>
+                  <c:v>0.97222353422051433</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5443393900000002</c:v>
+                  <c:v>0.97063848874994896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.54100606</c:v>
+                  <c:v>0.96972563644160803</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5354878799999998</c:v>
+                  <c:v>0.96821444992516947</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5365000000000002</c:v>
+                  <c:v>0.96849162502584007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5381606099999998</c:v>
+                  <c:v>0.96894639298213403</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5406181800000001</c:v>
+                  <c:v>0.96961941318937706</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5353787900000002</c:v>
+                  <c:v>0.96818457497779953</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5343484799999998</c:v>
+                  <c:v>0.9679024184371009</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.5396606099999999</c:v>
+                  <c:v>0.96935717693167134</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.54049697</c:v>
+                  <c:v>0.96958621910769482</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.5368272699999999</c:v>
+                  <c:v>0.96858124986795002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5320303000000002</c:v>
+                  <c:v>0.96726757101300864</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5354302999999998</c:v>
+                  <c:v>0.96819868129862652</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.54045758</c:v>
+                  <c:v>0.9695754319211799</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.5342333300000002</c:v>
+                  <c:v>0.96787088392257481</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.5345424200000002</c:v>
+                  <c:v>0.96795553006321655</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5405696999999998</c:v>
+                  <c:v>0.96960613665212791</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5305727299999998</c:v>
+                  <c:v>0.96686840677212382</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.5280121200000001</c:v>
+                  <c:v>0.96616716844610739</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.5276999999999998</c:v>
+                  <c:v>0.96608169252188758</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.5244090899999998</c:v>
+                  <c:v>0.96518045718363965</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.5344848500000001</c:v>
+                  <c:v>0.9679397641752332</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.5299939400000002</c:v>
+                  <c:v>0.96670990167735549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4541,7 +6240,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-732A-F54C-9763-1F96EABB7E43}"/>
+              <c16:uniqueId val="{00000003-241B-7C43-9061-5249C6843006}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4562,105 +6261,105 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$33</c:f>
+              <c:f>Sheet1!$M$2:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.91258787878787884</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90029090909090914</c:v>
+                  <c:v>0.98652516652609623</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89586363636363642</c:v>
+                  <c:v>0.98167382800826153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89135757575757579</c:v>
+                  <c:v>0.97673615492405874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88782424242424229</c:v>
+                  <c:v>0.97286438167847655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88761818181818186</c:v>
+                  <c:v>0.97263858358182187</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8861939393939392</c:v>
+                  <c:v>0.97107792026670714</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88681818181818195</c:v>
+                  <c:v>0.97176195567716195</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88408484848484836</c:v>
+                  <c:v>0.96876681033623979</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88391818181818171</c:v>
+                  <c:v>0.96858417952276887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88481818181818184</c:v>
+                  <c:v>0.96957038591551159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.88407272727272712</c:v>
+                  <c:v>0.96875352809526005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88460303030303034</c:v>
+                  <c:v>0.96933462613812205</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.88426969696969704</c:v>
+                  <c:v>0.96896936451118032</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88550909090909091</c:v>
+                  <c:v>0.97032747365135441</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88393939393939402</c:v>
+                  <c:v>0.96860742344448358</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.88388787878787878</c:v>
+                  <c:v>0.96855097392031975</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88214545454545445</c:v>
+                  <c:v>0.96664165177948813</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88312424242424259</c:v>
+                  <c:v>0.96771419273859893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.88404545454545447</c:v>
+                  <c:v>0.96872364305305581</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.88363030303030288</c:v>
+                  <c:v>0.968268726299501</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.88340909090909092</c:v>
+                  <c:v>0.9680263254016217</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88312424242424259</c:v>
+                  <c:v>0.96771419273859893</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.88330606060606076</c:v>
+                  <c:v>0.96791342635329447</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.88343333333333329</c:v>
+                  <c:v>0.96805288988358107</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8841212121212122</c:v>
+                  <c:v>0.96880665705917901</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.88441515151515149</c:v>
+                  <c:v>0.96912875140293664</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8838818181818181</c:v>
+                  <c:v>0.96854433279982988</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.88328484848484867</c:v>
+                  <c:v>0.96789018243157998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.88379696969697008</c:v>
+                  <c:v>0.96845135711297248</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.88609090909090926</c:v>
+                  <c:v>0.97096502121838013</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.88662424242424231</c:v>
+                  <c:v>0.97154943982148656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4668,7 +6367,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-732A-F54C-9763-1F96EABB7E43}"/>
+              <c16:uniqueId val="{00000004-241B-7C43-9061-5249C6843006}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4689,105 +6388,105 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$33</c:f>
+              <c:f>Sheet1!$N$2:$N$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.11467272727272726</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11315757575757578</c:v>
+                  <c:v>0.98678716769726782</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11222727272727274</c:v>
+                  <c:v>0.97867448866339013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11146060606060609</c:v>
+                  <c:v>0.97198879551820772</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11113939393939395</c:v>
+                  <c:v>0.96918767507002823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11093333333333333</c:v>
+                  <c:v>0.96739072987685648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1107939393939394</c:v>
+                  <c:v>0.96617514930500525</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11078484848484853</c:v>
+                  <c:v>0.9660958723111891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11079090909090913</c:v>
+                  <c:v>0.96614872364040005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11060909090909095</c:v>
+                  <c:v>0.96456318376407213</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11064848484848488</c:v>
+                  <c:v>0.96490671740394318</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11069696969696974</c:v>
+                  <c:v>0.96532952803763061</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11060606060606062</c:v>
+                  <c:v>0.96453675809946648</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11050000000000004</c:v>
+                  <c:v>0.96361185983827546</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11046969696969701</c:v>
+                  <c:v>0.96334760319222079</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11025454545454548</c:v>
+                  <c:v>0.96147138100523266</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11041515151515154</c:v>
+                  <c:v>0.96287194122932218</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.11052424242424244</c:v>
+                  <c:v>0.96382326515511896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.11056969696969697</c:v>
+                  <c:v>0.96421965012420074</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11029393939393942</c:v>
+                  <c:v>0.9618149146451036</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11039393939393942</c:v>
+                  <c:v>0.962686961577084</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.11059696969696972</c:v>
+                  <c:v>0.96445748110565011</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11057575757575759</c:v>
+                  <c:v>0.96427250145341181</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.11064242424242424</c:v>
+                  <c:v>0.96485386607473189</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.11077575757575758</c:v>
+                  <c:v>0.96601659531737238</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.11059090909090911</c:v>
+                  <c:v>0.96440462977643915</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.11058181818181821</c:v>
+                  <c:v>0.96432535278262288</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.11043030303030303</c:v>
+                  <c:v>0.96300406955234941</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.11049999999999999</c:v>
+                  <c:v>0.96361185983827491</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.11033333333333334</c:v>
+                  <c:v>0.96215844828497454</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11049090909090911</c:v>
+                  <c:v>0.96353258284445886</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11062424242424244</c:v>
+                  <c:v>0.96469531208709924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4795,7 +6494,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-732A-F54C-9763-1F96EABB7E43}"/>
+              <c16:uniqueId val="{00000005-241B-7C43-9061-5249C6843006}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4808,11 +6507,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1671747711"/>
-        <c:axId val="1671821823"/>
+        <c:axId val="1839728591"/>
+        <c:axId val="1610862751"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1671747711"/>
+        <c:axId val="1839728591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4854,7 +6553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1671821823"/>
+        <c:crossAx val="1610862751"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4862,7 +6561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1671821823"/>
+        <c:axId val="1610862751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4913,7 +6612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1671747711"/>
+        <c:crossAx val="1839728591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5281,6 +6980,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9448,33 +11187,547 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C813C8E1-55BF-E741-B73D-52EEDA44FE70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53FEEF63-71C1-9747-83FA-6FE4458A9FF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9495,29 +11748,27 @@
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399BFAAA-091C-3E40-A6F8-CB775BDFD85B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AD6851-FA31-AB45-B1FD-767C58CB54F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9536,25 +11787,25 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464A383F-345B-1B4E-B06C-C7DF7A71EF58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98452D4A-92C7-7B44-A42A-99FDA92CE5D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9579,29 +11830,27 @@
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F914079-9E78-4945-BFB6-FE9E07C0DDCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BE9FCB-ECB4-CC46-ACF9-B507E80F43CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9622,29 +11871,27 @@
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6358902-3349-F241-BC75-9D3DDCAB4708}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FEBFD2-3345-7B40-ACBA-80045E9317AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9665,29 +11912,27 @@
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6069125-536D-CF45-B62F-933FE45EEF55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFD2903-C6B3-094C-89D5-953F03598BF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9714,8 +11959,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -9744,16 +11989,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9781,181 +12026,48 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="graph2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="AI1">
-            <v>0.92846060606060599</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="AI2">
-            <v>0.92417272727272726</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="AI3">
-            <v>0.91933333333333322</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="AI4">
-            <v>0.91479696969696966</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="AI5">
-            <v>0.9111060606060607</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AI6">
-            <v>0.90669393939393939</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="AI7">
-            <v>0.90226060606060599</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AI8">
-            <v>0.89887878787878772</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="AI9">
-            <v>0.89497575757575765</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="AI10">
-            <v>0.89129999999999998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AI11">
-            <v>0.88753333333333329</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AI12">
-            <v>0.88160000000000005</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AI13">
-            <v>0.87744545454545464</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AI14">
-            <v>0.87510606060606044</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="AI15">
-            <v>0.87185757575757583</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="AI16">
-            <v>0.86960000000000015</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="AI17">
-            <v>0.86511515151515173</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="AI18">
-            <v>0.86199393939393953</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="AI19">
-            <v>0.85850303030303032</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AI20">
-            <v>0.85403636363636348</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="AI21">
-            <v>0.84988787878787875</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AI22">
-            <v>0.84556060606060612</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AI23">
-            <v>0.84460909090909075</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AI24">
-            <v>0.84087575757575761</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AI25">
-            <v>0.8355242424242425</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AI26">
-            <v>0.83057272727272735</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="AI27">
-            <v>0.82602121212121205</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AI28">
-            <v>0.82215757575757564</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="AI29">
-            <v>0.81850000000000001</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="AI30">
-            <v>0.81341818181818171</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="AI31">
-            <v>0.81224848484848489</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="AI32">
-            <v>0.8061060606060606</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FDA2FE-B4AE-D04A-BBB2-9FE79186C478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1">
     <sheetNames>
@@ -10267,8 +12379,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13869,8 +15981,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AJ34"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17472,7 +19584,7 @@
   <dimension ref="A1:AR34"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AJ34"/>
+      <selection activeCell="AI1" sqref="AI1:AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21299,7 +23411,7 @@
   <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AJ34"/>
+      <selection activeCell="AI1" sqref="AI1:AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24901,7 +27013,7 @@
   <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AJ34"/>
+      <selection activeCell="AI1" sqref="AI1:AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28503,7 +30615,7 @@
   <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+      <selection activeCell="AI1" sqref="AI1:AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32104,8 +34216,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9134865B-0A2D-8D44-B3AB-EBAB9498B076}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32870,4 +34982,1588 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71F0A57-EE3D-4F42-90ED-4DAEB80D050C}">
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:N33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>16</v>
+      </c>
+      <c r="C1">
+        <v>32</v>
+      </c>
+      <c r="D1">
+        <v>64</v>
+      </c>
+      <c r="E1">
+        <v>256</v>
+      </c>
+      <c r="F1">
+        <v>1024</v>
+      </c>
+      <c r="G1">
+        <v>8192</v>
+      </c>
+      <c r="I1">
+        <v>16</v>
+      </c>
+      <c r="J1">
+        <v>32</v>
+      </c>
+      <c r="K1">
+        <v>64</v>
+      </c>
+      <c r="L1">
+        <v>256</v>
+      </c>
+      <c r="M1">
+        <v>1024</v>
+      </c>
+      <c r="N1">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>58.546833333333339</v>
+      </c>
+      <c r="C2">
+        <v>29.234769696969703</v>
+      </c>
+      <c r="D2">
+        <v>14.654448484848484</v>
+      </c>
+      <c r="E2">
+        <v>3.6515545500000002</v>
+      </c>
+      <c r="F2">
+        <v>0.91258787878787884</v>
+      </c>
+      <c r="G2">
+        <v>0.11467272727272726</v>
+      </c>
+      <c r="I2">
+        <f>B2/B34</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>C2/$C$34</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>D2/$D$34</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>E2/$E$34</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>F2/$F$34</f>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>G2/$G$34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>57.949521212121212</v>
+      </c>
+      <c r="C3">
+        <v>28.851178787878787</v>
+      </c>
+      <c r="D3">
+        <v>14.4536</v>
+      </c>
+      <c r="E3">
+        <v>3.59874545</v>
+      </c>
+      <c r="F3">
+        <v>0.90029090909090914</v>
+      </c>
+      <c r="G3">
+        <v>0.11315757575757578</v>
+      </c>
+      <c r="I3">
+        <f>B3/$B$34</f>
+        <v>0.98979770403957867</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J33" si="0">C3/$C$34</f>
+        <v>0.98687894883157989</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K33" si="1">D3/$D$34</f>
+        <v>0.98629436753923938</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L33" si="2">E3/$E$34</f>
+        <v>0.98553791288699211</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M33" si="3">F3/$F$34</f>
+        <v>0.98652516652609623</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N33" si="4">G3/$G$34</f>
+        <v>0.98678716769726782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>57.205699999999993</v>
+      </c>
+      <c r="C4">
+        <v>28.677660606060602</v>
+      </c>
+      <c r="D4">
+        <v>14.374636363636366</v>
+      </c>
+      <c r="E4">
+        <v>3.5785151499999999</v>
+      </c>
+      <c r="F4">
+        <v>0.89586363636363642</v>
+      </c>
+      <c r="G4">
+        <v>0.11222727272727274</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I33" si="5">B4/$B$34</f>
+        <v>0.97709298254104238</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.98094361280476072</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.98090599441518245</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.97999772453077549</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0.98167382800826153</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>0.97867448866339013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>57.343054545454535</v>
+      </c>
+      <c r="C5">
+        <v>28.546266666666668</v>
+      </c>
+      <c r="D5">
+        <v>14.310554545454547</v>
+      </c>
+      <c r="E5">
+        <v>3.5711575799999999</v>
+      </c>
+      <c r="F5">
+        <v>0.89135757575757579</v>
+      </c>
+      <c r="G5">
+        <v>0.11146060606060609</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="5"/>
+        <v>0.97943904530198667</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.97644917208380122</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.97653313669569375</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.97798281008837717</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>0.97673615492405874</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>0.97198879551820772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>57.375190909090904</v>
+      </c>
+      <c r="C6">
+        <v>28.498587878787877</v>
+      </c>
+      <c r="D6">
+        <v>14.245451515151514</v>
+      </c>
+      <c r="E6">
+        <v>3.5574636399999999</v>
+      </c>
+      <c r="F6">
+        <v>0.88782424242424229</v>
+      </c>
+      <c r="G6">
+        <v>0.11113939393939395</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>0.97998794541846956</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.97481827885724259</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.97209059282443555</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.97423264291642575</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.97286438167847655</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.96918767507002823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>57.128769696969698</v>
+      </c>
+      <c r="C7">
+        <v>28.399557575757569</v>
+      </c>
+      <c r="D7">
+        <v>14.246475757575757</v>
+      </c>
+      <c r="E7">
+        <v>3.5520636400000001</v>
+      </c>
+      <c r="F7">
+        <v>0.88761818181818186</v>
+      </c>
+      <c r="G7">
+        <v>0.11093333333333333</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>0.97577898657148598</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.97143086366441578</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.97216048576003822</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.97275382069809146</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.97263858358182187</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>0.96739072987685648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>57.0306909090909</v>
+      </c>
+      <c r="C8">
+        <v>28.365548484848478</v>
+      </c>
+      <c r="D8">
+        <v>14.193033333333331</v>
+      </c>
+      <c r="E8">
+        <v>3.5539757600000002</v>
+      </c>
+      <c r="F8">
+        <v>0.8861939393939392</v>
+      </c>
+      <c r="G8">
+        <v>0.1107939393939394</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>0.97410376722494352</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.97026755397319508</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.96851364607871671</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.97327746616848432</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.97107792026670714</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>0.96617514930500525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>56.815442424242413</v>
+      </c>
+      <c r="C9">
+        <v>28.370718181818177</v>
+      </c>
+      <c r="D9">
+        <v>14.205490909090909</v>
+      </c>
+      <c r="E9">
+        <v>3.5493757600000002</v>
+      </c>
+      <c r="F9">
+        <v>0.88681818181818195</v>
+      </c>
+      <c r="G9">
+        <v>0.11078484848484853</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>0.97042724925474033</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.9704443878262845</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.96936373441677037</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.97201772872323655</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.97176195567716195</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0.9660958723111891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>56.786757575757562</v>
+      </c>
+      <c r="C10">
+        <v>28.342096969696964</v>
+      </c>
+      <c r="D10">
+        <v>14.21902424242424</v>
+      </c>
+      <c r="E10">
+        <v>3.5501272699999999</v>
+      </c>
+      <c r="F10">
+        <v>0.88408484848484836</v>
+      </c>
+      <c r="G10">
+        <v>0.11079090909090913</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>0.96993730220121599</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.96946537508160124</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.97028723101558978</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.97222353422051433</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>0.96876681033623979</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>0.96614872364040005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>56.696199999999997</v>
+      </c>
+      <c r="C11">
+        <v>28.320242424242419</v>
+      </c>
+      <c r="D11">
+        <v>14.249948484848485</v>
+      </c>
+      <c r="E11">
+        <v>3.5443393900000002</v>
+      </c>
+      <c r="F11">
+        <v>0.88391818181818171</v>
+      </c>
+      <c r="G11">
+        <v>0.11060909090909095</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>0.96839054773813538</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.96871782188788447</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.97239746003282079</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.97063848874994896</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0.96858417952276887</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>0.96456318376407213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>56.565827272727262</v>
+      </c>
+      <c r="C12">
+        <v>28.294839393939391</v>
+      </c>
+      <c r="D12">
+        <v>14.235339393939395</v>
+      </c>
+      <c r="E12">
+        <v>3.54100606</v>
+      </c>
+      <c r="F12">
+        <v>0.88481818181818184</v>
+      </c>
+      <c r="G12">
+        <v>0.11064848484848488</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>0.96616373682710865</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.96784888977156058</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.97140055517323531</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.96972563644160803</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0.96957038591551159</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>0.96490671740394318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>56.563936363636358</v>
+      </c>
+      <c r="C13">
+        <v>28.283121212121209</v>
+      </c>
+      <c r="D13">
+        <v>14.228284848484845</v>
+      </c>
+      <c r="E13">
+        <v>3.5354878799999998</v>
+      </c>
+      <c r="F13">
+        <v>0.88407272727272712</v>
+      </c>
+      <c r="G13">
+        <v>0.11069696969696974</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>0.96613143945108937</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.96744805946095291</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.97091916240967668</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.96821444992516947</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>0.96875352809526005</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>0.96532952803763061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>56.529475757575753</v>
+      </c>
+      <c r="C14">
+        <v>28.307230303030298</v>
+      </c>
+      <c r="D14">
+        <v>14.184721212121209</v>
+      </c>
+      <c r="E14">
+        <v>3.5365000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.88460303030303034</v>
+      </c>
+      <c r="G14">
+        <v>0.11060606060606062</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>0.96554284047658279</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.96827273128696656</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.96794643802440372</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.96849162502584007</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>0.96933462613812205</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>0.96453675809946648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>56.597530303030283</v>
+      </c>
+      <c r="C15">
+        <v>28.255306060606049</v>
+      </c>
+      <c r="D15">
+        <v>14.180021212121208</v>
+      </c>
+      <c r="E15">
+        <v>3.5381606099999998</v>
+      </c>
+      <c r="F15">
+        <v>0.88426969696969704</v>
+      </c>
+      <c r="G15">
+        <v>0.11050000000000004</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>0.96670523546158682</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.96649661870039705</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.9676257162991978</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.96894639298213403</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0.96896936451118032</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>0.96361185983827546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>56.691533333333318</v>
+      </c>
+      <c r="C16">
+        <v>28.271175757575755</v>
+      </c>
+      <c r="D16">
+        <v>14.186451515151512</v>
+      </c>
+      <c r="E16">
+        <v>3.5406181800000001</v>
+      </c>
+      <c r="F16">
+        <v>0.88550909090909091</v>
+      </c>
+      <c r="G16">
+        <v>0.11046969696969701</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>0.96831083947039509</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.96703945509467004</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.96806451159312867</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.96961941318937706</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0.97032747365135441</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>0.96334760319222079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>56.744863636363625</v>
+      </c>
+      <c r="C17">
+        <v>28.310957575757566</v>
+      </c>
+      <c r="D17">
+        <v>14.156312121212123</v>
+      </c>
+      <c r="E17">
+        <v>3.5353787900000002</v>
+      </c>
+      <c r="F17">
+        <v>0.88393939393939402</v>
+      </c>
+      <c r="G17">
+        <v>0.11025454545454548</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>0.96922173934309486</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.96840022580003793</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0.9660078395886823</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.96818457497779953</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0.96860742344448358</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>0.96147138100523266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>56.753069696969682</v>
+      </c>
+      <c r="C18">
+        <v>28.31652727272726</v>
+      </c>
+      <c r="D18">
+        <v>14.150221212121211</v>
+      </c>
+      <c r="E18">
+        <v>3.5343484799999998</v>
+      </c>
+      <c r="F18">
+        <v>0.88388787878787878</v>
+      </c>
+      <c r="G18">
+        <v>0.11041515151515154</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>0.96936190167364034</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.96859074199111539</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.96559220408406343</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.9679024184371009</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>0.96855097392031975</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>0.96287194122932218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>56.78128181818181</v>
+      </c>
+      <c r="C19">
+        <v>28.311309090909081</v>
+      </c>
+      <c r="D19">
+        <v>14.160303030303027</v>
+      </c>
+      <c r="E19">
+        <v>3.5396606099999999</v>
+      </c>
+      <c r="F19">
+        <v>0.88214545454545445</v>
+      </c>
+      <c r="G19">
+        <v>0.11052424242424244</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>0.96984377438316005</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.96841224967281536</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.9662801738969321</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.96935717693167134</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>0.96664165177948813</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>0.96382326515511896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>56.618639393939389</v>
+      </c>
+      <c r="C20">
+        <v>28.276896969696963</v>
+      </c>
+      <c r="D20">
+        <v>14.142648484848481</v>
+      </c>
+      <c r="E20">
+        <v>3.54049697</v>
+      </c>
+      <c r="F20">
+        <v>0.88312424242424259</v>
+      </c>
+      <c r="G20">
+        <v>0.11056969696969697</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>0.96706578597657233</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0.96723515398953097</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0.96507545128503724</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0.96958621910769482</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>0.96771419273859893</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>0.96421965012420074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>56.67025151515152</v>
+      </c>
+      <c r="C21">
+        <v>28.252927272727266</v>
+      </c>
+      <c r="D21">
+        <v>14.145833333333332</v>
+      </c>
+      <c r="E21">
+        <v>3.5368272699999999</v>
+      </c>
+      <c r="F21">
+        <v>0.88404545454545447</v>
+      </c>
+      <c r="G21">
+        <v>0.11029393939393942</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>0.96794733871433147</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.96641525025099795</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.96529278109367145</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0.96858124986795002</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>0.96872364305305581</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>0.9618149146451036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>56.572475757575752</v>
+      </c>
+      <c r="C22">
+        <v>28.278636363636359</v>
+      </c>
+      <c r="D22">
+        <v>14.151915151515151</v>
+      </c>
+      <c r="E22">
+        <v>3.5320303000000002</v>
+      </c>
+      <c r="F22">
+        <v>0.88363030303030288</v>
+      </c>
+      <c r="G22">
+        <v>0.11039393939393942</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>0.96627729522933059</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0.96729465142896431</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0.96570779624679082</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0.96726757101300864</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>0.968268726299501</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>0.962686961577084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>56.661515151515147</v>
+      </c>
+      <c r="C23">
+        <v>28.312639393939385</v>
+      </c>
+      <c r="D23">
+        <v>14.157975757575755</v>
+      </c>
+      <c r="E23">
+        <v>3.5354302999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.88340909090909092</v>
+      </c>
+      <c r="G23">
+        <v>0.11059696969696972</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>0.96779811862608811</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.96845775381203358</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0.9661213639130779</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0.96819868129862652</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0.9680263254016217</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>0.96445748110565011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>56.611924242424237</v>
+      </c>
+      <c r="C24">
+        <v>28.30651515151515</v>
+      </c>
+      <c r="D24">
+        <v>14.151336363636362</v>
+      </c>
+      <c r="E24">
+        <v>3.54045758</v>
+      </c>
+      <c r="F24">
+        <v>0.88312424242424259</v>
+      </c>
+      <c r="G24">
+        <v>0.11057575757575759</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>0.96695108888481129</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0.96824826892510907</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.96566830053466024</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0.9695754319211799</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0.96771419273859893</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>0.96427250145341181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>56.597684848484839</v>
+      </c>
+      <c r="C25">
+        <v>28.260772727272716</v>
+      </c>
+      <c r="D25">
+        <v>14.147981818181819</v>
+      </c>
+      <c r="E25">
+        <v>3.5342333300000002</v>
+      </c>
+      <c r="F25">
+        <v>0.88330606060606076</v>
+      </c>
+      <c r="G25">
+        <v>0.11064242424242424</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>0.96670787515097312</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0.96668361065290187</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.96543939083137043</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>0.96787088392257481</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>0.96791342635329447</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>0.96485386607473189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>56.417648484848463</v>
+      </c>
+      <c r="C26">
+        <v>28.290609090909079</v>
+      </c>
+      <c r="D26">
+        <v>14.143790909090908</v>
+      </c>
+      <c r="E26">
+        <v>3.5345424200000002</v>
+      </c>
+      <c r="F26">
+        <v>0.88343333333333329</v>
+      </c>
+      <c r="G26">
+        <v>0.11077575757575758</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>0.96363279229189946</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0.96770418868192798</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0.96515340879013267</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>0.96795553006321655</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>0.96805288988358107</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>0.96601659531737238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>56.340924242424229</v>
+      </c>
+      <c r="C27">
+        <v>28.281766666666663</v>
+      </c>
+      <c r="D27">
+        <v>14.158203030303032</v>
+      </c>
+      <c r="E27">
+        <v>3.5405696999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.8841212121212122</v>
+      </c>
+      <c r="G27">
+        <v>0.11059090909090911</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>0.96232231590819128</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0.96740172608912933</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.96613687270056392</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0.96960613665212791</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>0.96880665705917901</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>0.96440462977643915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>56.407390909090893</v>
+      </c>
+      <c r="C28">
+        <v>28.293990909090905</v>
+      </c>
+      <c r="D28">
+        <v>14.130921212121212</v>
+      </c>
+      <c r="E28">
+        <v>3.5305727299999998</v>
+      </c>
+      <c r="F28">
+        <v>0.88441515151515149</v>
+      </c>
+      <c r="G28">
+        <v>0.11058181818181821</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>0.96345758937871773</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0.96781986663037356</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.96427519785077165</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>0.96686840677212382</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>0.96912875140293664</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>0.96432535278262288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>56.474484848484842</v>
+      </c>
+      <c r="C29">
+        <v>28.250481818181822</v>
+      </c>
+      <c r="D29">
+        <v>14.137715151515152</v>
+      </c>
+      <c r="E29">
+        <v>3.5280121200000001</v>
+      </c>
+      <c r="F29">
+        <v>0.8838818181818181</v>
+      </c>
+      <c r="G29">
+        <v>0.11043030303030303</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>0.96460357688263532</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.9663316014119343</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0.96473880720467975</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>0.96616716844610739</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>0.96854433279982988</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>0.96300406955234941</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>56.460360606060597</v>
+      </c>
+      <c r="C30">
+        <v>28.296181818181818</v>
+      </c>
+      <c r="D30">
+        <v>14.167721212121213</v>
+      </c>
+      <c r="E30">
+        <v>3.5276999999999998</v>
+      </c>
+      <c r="F30">
+        <v>0.88328484848484867</v>
+      </c>
+      <c r="G30">
+        <v>0.11049999999999999</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>0.96436232997618299</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0.96789480852708154</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.96678638072046807</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>0.96608169252188758</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>0.96789018243157998</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>0.96361185983827491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>56.594184848484829</v>
+      </c>
+      <c r="C31">
+        <v>28.275969696969696</v>
+      </c>
+      <c r="D31">
+        <v>14.146448484848484</v>
+      </c>
+      <c r="E31">
+        <v>3.5244090899999998</v>
+      </c>
+      <c r="F31">
+        <v>0.88379696969697008</v>
+      </c>
+      <c r="G31">
+        <v>0.11033333333333334</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>0.96664809395016793</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0.96720343584237678</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.96533475821179959</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>0.96518045718363965</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>0.96845135711297248</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>0.96215844828497454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>56.538639393939391</v>
+      </c>
+      <c r="C32">
+        <v>28.273854545454537</v>
+      </c>
+      <c r="D32">
+        <v>14.180542424242422</v>
+      </c>
+      <c r="E32">
+        <v>3.5344848500000001</v>
+      </c>
+      <c r="F32">
+        <v>0.88609090909090926</v>
+      </c>
+      <c r="G32">
+        <v>0.11049090909090911</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>0.96569935852959976</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0.96713108529756031</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0.96766128311849864</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>0.9679397641752332</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>0.97096502121838013</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>0.96353258284445886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>56.56248787878787</v>
+      </c>
+      <c r="C33">
+        <v>28.298421212121209</v>
+      </c>
+      <c r="D33">
+        <v>14.142706060606058</v>
+      </c>
+      <c r="E33">
+        <v>3.5299939400000002</v>
+      </c>
+      <c r="F33">
+        <v>0.88662424242424231</v>
+      </c>
+      <c r="G33">
+        <v>0.11062424242424244</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>0.96610669883292066</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0.96797140888900002</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0.9650793801778671</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>0.96670990167735549</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>0.97154943982148656</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>0.96469531208709924</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <f>MAX(B2:B33)</f>
+        <v>58.546833333333339</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:G34" si="6">MAX(C2:C33)</f>
+        <v>29.234769696969703</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="6"/>
+        <v>14.654448484848484</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>3.6515545500000002</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="6"/>
+        <v>0.91258787878787884</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>0.11467272727272726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>